--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="14340" windowHeight="4452" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="59">
   <si>
     <t>TC</t>
   </si>
@@ -191,12 +196,15 @@
   </si>
   <si>
     <t>Weekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -267,6 +275,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -314,7 +325,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -347,9 +358,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -382,6 +410,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -557,22 +602,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,7 +631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -600,7 +645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -614,7 +659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -628,7 +673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -642,7 +687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -653,7 +698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -674,21 +719,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="82.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="11.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="82.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -711,7 +756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -728,7 +773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -745,7 +790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -762,7 +807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -779,7 +824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -796,7 +841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -813,7 +858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -830,7 +875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -847,7 +892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
@@ -864,7 +909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
@@ -881,7 +926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
@@ -898,7 +943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -915,7 +960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -938,28 +983,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="44.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="13" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="53.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="53.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
@@ -1000,7 +1045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>47</v>
       </c>
@@ -1035,7 +1080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>47</v>
       </c>
@@ -1070,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>47</v>
       </c>
@@ -1105,7 +1150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>47</v>
       </c>
@@ -1140,7 +1185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>47</v>
       </c>
@@ -1175,7 +1220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>47</v>
       </c>
@@ -1210,7 +1255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>47</v>
       </c>
@@ -1245,7 +1290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>47</v>
       </c>
@@ -1280,7 +1325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>47</v>
       </c>
@@ -1315,7 +1360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>47</v>
       </c>
@@ -1350,7 +1395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>47</v>
       </c>
@@ -1385,7 +1430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>47</v>
       </c>
@@ -1420,7 +1465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>47</v>
       </c>
@@ -1462,28 +1507,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="11" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="41.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="51.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="11" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
@@ -1527,7 +1572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>47</v>
       </c>
@@ -1550,7 +1595,7 @@
         <v>49</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>54</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="58">
   <si>
     <t>TC</t>
   </si>
@@ -174,9 +174,6 @@
     <t>DO NOT TOUCH - PAYROLL AUTOMATION CHECK</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -198,13 +195,13 @@
     <t>Weekly_Payroll</t>
   </si>
   <si>
-    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201516\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -602,7 +599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -719,7 +716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -983,11 +980,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C14"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,7 +1050,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>19</v>
@@ -1062,19 +1059,19 @@
         <v>48</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>5</v>
@@ -1088,7 +1085,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>19</v>
@@ -1097,19 +1094,19 @@
         <v>48</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>5</v>
@@ -1123,7 +1120,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>19</v>
@@ -1132,19 +1129,19 @@
         <v>48</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>5</v>
@@ -1158,7 +1155,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>19</v>
@@ -1167,19 +1164,19 @@
         <v>48</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>5</v>
@@ -1193,7 +1190,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>19</v>
@@ -1202,19 +1199,19 @@
         <v>48</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>5</v>
@@ -1228,7 +1225,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>19</v>
@@ -1237,19 +1234,19 @@
         <v>48</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>5</v>
@@ -1263,7 +1260,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>19</v>
@@ -1272,19 +1269,19 @@
         <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>5</v>
@@ -1298,7 +1295,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>19</v>
@@ -1307,19 +1304,19 @@
         <v>48</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>5</v>
@@ -1333,7 +1330,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>19</v>
@@ -1342,19 +1339,19 @@
         <v>48</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>5</v>
@@ -1368,7 +1365,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>19</v>
@@ -1377,19 +1374,19 @@
         <v>48</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>5</v>
@@ -1403,7 +1400,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>19</v>
@@ -1412,19 +1409,19 @@
         <v>48</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>5</v>
@@ -1438,7 +1435,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>19</v>
@@ -1447,19 +1444,19 @@
         <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>5</v>
@@ -1473,7 +1470,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>19</v>
@@ -1482,19 +1479,19 @@
         <v>48</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>5</v>
@@ -1507,10 +1504,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1560,7 +1557,7 @@
         <v>46</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>2</v>
@@ -1580,7 +1577,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>19</v>
@@ -1589,22 +1586,22 @@
         <v>48</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>5</v>
